--- a/biology/Zoologie/Anthocharis_midea/Anthocharis_midea.xlsx
+++ b/biology/Zoologie/Anthocharis_midea/Anthocharis_midea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthocharis midea  est un  insecte lépidoptère de la famille des Pieridae de la sous-famille des Pierinae et du genre Anthocharis.
 </t>
@@ -511,16 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Anthocharis midea a été nommé par Jakob Hübner en 1809.
-Synonymes : Mancipium midea Hübner, [1809]; Papilio genutia Fabricius, 1793; Falcapica medea (Leussler, 1938); Synchloe genutia ; Dyar, 1903[1]. 
-Noms vernaculaires
-Anthocharis midea se nomme Falcate Orangetip  en anglais[1].
-Sous-espèces
-Anthocharis midea midea
-Anthocharis midea annickae dos Passos et Klots, 1969
-Anthocharis midea texana Gatrelle, 1998[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anthocharis midea a été nommé par Jakob Hübner en 1809.
+Synonymes : Mancipium midea Hübner, ; Papilio genutia Fabricius, 1793; Falcapica medea (Leussler, 1938); Synchloe genutia ; Dyar, 1903. 
+</t>
         </is>
       </c>
     </row>
@@ -545,14 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anthocharis midea est un papillon de taille moyenne (envergure variant de 35 à 45 mm) qui présente le même dimorphisme sexuel que les autres Aurore: les ailes antérieures du mâle ont un apex orange moins intense sur le revers. Le revers des ailes postérieures est marbré de vert[2].
-Chenille
-La chenille est de couleur vert olive à marron[3].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anthocharis midea se nomme Falcate Orangetip  en anglais.
 </t>
         </is>
       </c>
@@ -578,17 +591,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole de mars à juin, principalement en mars avril en une seule génération[4].
-C'est la chrysalide qui hiverne.
-Plantes hôtes
-Les plantes-hôtes de sa chenille sont de nombreuses Brassicaceae: Arabis, Barbarea, Capsella bursa-pastorisdes, Cardamine,  Sisymbrium[1].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Anthocharis midea midea
+Anthocharis midea annickae dos Passos et Klots, 1969
+Anthocharis midea texana Gatrelle, 1998.</t>
         </is>
       </c>
     </row>
@@ -613,16 +629,233 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anthocharis midea est un papillon de taille moyenne (envergure variant de 35 à 45 mm) qui présente le même dimorphisme sexuel que les autres Aurore: les ailes antérieures du mâle ont un apex orange moins intense sur le revers. Le revers des ailes postérieures est marbré de vert.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anthocharis_midea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthocharis_midea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est de couleur vert olive à marron.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anthocharis_midea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthocharis_midea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole de mars à juin, principalement en mars avril en une seule génération.
+C'est la chrysalide qui hiverne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anthocharis_midea</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthocharis_midea</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes-hôtes de sa chenille sont de nombreuses Brassicaceae: Arabis, Barbarea, Capsella bursa-pastorisdes, Cardamine,  Sisymbrium.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Anthocharis_midea</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthocharis_midea</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anthocharis midea est présente dans le sud-est de l'Amérique du Nord aux USA du sud de la Nouvelle-Angleterre au Texas[1],[2].
-Biotope
-Il réside principalement dans les zones boisées des bordures de rivières[2].
-Protection
-Pas de statut de protection particulier[2].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anthocharis midea est présente dans le sud-est de l'Amérique du Nord aux USA du sud de la Nouvelle-Angleterre au Texas,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Anthocharis_midea</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthocharis_midea</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside principalement dans les zones boisées des bordures de rivières.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Anthocharis_midea</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthocharis_midea</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
